--- a/data/trans_bre/P10_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P10_3-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>8,01%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 2,47</t>
+          <t>-1,81; 2,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 2,78</t>
+          <t>-1,83; 2,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-71,4; 136,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 146,77</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>-19,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>-19,27%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 5,04</t>
+          <t>-9,85; 4,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 4,52</t>
+          <t>-12,02; 4,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,58; 244,74</t>
+          <t>-86,52; 168,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,58; 219,64</t>
+          <t>-88,63; 187,66</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 6,95</t>
+          <t>0,0; 17,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 6,57</t>
+          <t>0,0; 16,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,8</t>
+          <t>-3,76; 2,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,75</t>
+          <t>-4,57; 2,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 109,79</t>
+          <t>-73,58; 161,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 114,6</t>
+          <t>-76,65; 156,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P10_3-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,119 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,91%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,01%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.04432912990628302</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.05900343306132691</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.03906771850840367</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.0574610667693593</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 2,58</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 2,84</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.810538213493076</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.683621529989868</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.579223409953153</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.382123368888511</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-19,3%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-19,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,85; 4,19</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,02; 4,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-86,52; 168,11</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-88,63; 187,66</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.20136136723555</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.710083797355843</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1930222985275237</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.2519527690671718</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.846734871549359</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.7178053937664</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.8651811707768823</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.8969323042234751</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 17,46</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 16,07</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.190077760142423</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.120257848448936</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.681067382338087</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.709963771766622</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,24 +708,20 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,35%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
+      <c r="C10" s="5" t="n">
+        <v>5.095667002520159</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.613805068583918</v>
+      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -784,32 +729,100 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 2,61</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 2,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-73,58; 161,76</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-76,65; 156,27</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.45691360112201</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.15645014601647</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.04141307991799362</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2969926411146597</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.01353156967045952</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.0891097061425959</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.764124980973042</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.806129877237882</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.7357808093732997</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.7926001999903164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.606283274955147</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.317494225023513</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.617571118876977</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.600758296464688</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +830,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
